--- a/TestCases/InputSheet-form..xlsx
+++ b/TestCases/InputSheet-form..xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
   <si>
     <t>Description</t>
   </si>
@@ -617,7 +617,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +986,9 @@
       <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
